--- a/source/assets/file-download/Dateninventur_Vorlage.xlsx
+++ b/source/assets/file-download/Dateninventur_Vorlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akapp/Documents/TSBgithub/odis-website/source/assets/file-download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AAAC8E-F5B2-FC4D-9B48-70C44D1DA652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0736E6-A3EA-FC4A-9573-943ADB8B1A0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1520" windowWidth="27300" windowHeight="15920" xr2:uid="{9E9B97BA-E598-B744-A34B-CF35928B6749}"/>
+    <workbookView xWindow="30440" yWindow="460" windowWidth="27300" windowHeight="15920" xr2:uid="{9E9B97BA-E598-B744-A34B-CF35928B6749}"/>
   </bookViews>
   <sheets>
     <sheet name="Beschreibung" sheetId="4" r:id="rId1"/>
@@ -85,39 +85,21 @@
     <t>Die Abteilung / Institution die diese Daten bereitstellt.</t>
   </si>
   <si>
-    <t>Verantwortliche Stelle auf bezirklicher Ebene.</t>
-  </si>
-  <si>
-    <t>Konkrete Ansprechperson auf bezirklicher Ebene.</t>
-  </si>
-  <si>
     <t>Verantwortliche Stelle auf Landesebene.</t>
   </si>
   <si>
-    <t>Konkrete Ansprechperson auf Landesebene.</t>
-  </si>
-  <si>
     <t>Falls vorhanden: für diesen Datensatz verwendetes Fachverfahren oder Datenplattform.</t>
   </si>
   <si>
-    <t>Dateiformat, in dem der Datensatz vorliegt.</t>
-  </si>
-  <si>
     <t>Ist der Datensatz nur intern verfügbar oder öffentlich zugänglich?</t>
   </si>
   <si>
-    <t>Wann wurde der Datensatz zuletzt aktualisiert?</t>
-  </si>
-  <si>
     <t>Falls vorhanden: Link zur Ressource (externe URL oder lokaler Dateipfad)</t>
   </si>
   <si>
     <t>weitere Anmerkungen</t>
   </si>
   <si>
-    <t>letzte Bearbeitung dieser Metadatenzeile</t>
-  </si>
-  <si>
     <t>Ansprechperson - Landesebene</t>
   </si>
   <si>
@@ -148,9 +130,6 @@
     <t>Datensatz Titel - STANDARDISIERT</t>
   </si>
   <si>
-    <t>Der Titel des Datensatzes. (Entspricht ggf. dem standardisierten Datensatztitel)</t>
-  </si>
-  <si>
     <t>Wie häufig wird der Datensatz aktualisiert?</t>
   </si>
   <si>
@@ -173,13 +152,74 @@
   </si>
   <si>
     <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Konkrete Ansprechperson auf Landesebene mit Kontaktinformation.</t>
+  </si>
+  <si>
+    <t>Dateiformat, in dem der Datensatz vorliegt. (z.B. Excel, CSV, Shape-File, Access Datenbank, PostgreSQL Datenbank, etc.)</t>
+  </si>
+  <si>
+    <t>Der Titel des Datensatzes.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Falls Inventur auf Bezirksebene: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verantwortliche Stelle auf bezirklicher Ebene.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Falls Inventur auf Bezirksebene: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Konkrete Ansprechperson auf bezirklicher Ebene mit Kontaktinformation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Datum der letzten Aktualisierung</t>
+  </si>
+  <si>
+    <t>Datum der letzten Bearbeitung dieser Metadatenzeile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,6 +276,53 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -308,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -324,37 +411,56 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -921,197 +1027,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF3DEFA-6CB9-3B43-BE89-70F4444032E3}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.5" style="5"/>
-    <col min="2" max="3" width="46.5" style="17"/>
+    <col min="2" max="2" width="46.5" style="12"/>
+    <col min="3" max="3" width="46.5" style="23"/>
     <col min="4" max="16384" width="46.5" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>37</v>
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="11" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="12" t="s">
+    <row r="15" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="14" t="s">
+    <row r="19" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="20" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>8</v>
@@ -1149,22 +1256,22 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
@@ -1192,18 +1299,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{4EA56158-258B-D147-BA80-2FB648E0D2F9}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4EA56158-258B-D147-BA80-2FB648E0D2F9}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>